--- a/TA/TA.xlsx
+++ b/TA/TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="10605" windowHeight="7665" tabRatio="960" firstSheet="4" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10605" windowHeight="7665" tabRatio="960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TA0101" sheetId="2" r:id="rId1"/>
@@ -389,8 +389,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -434,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -447,16 +456,25 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -738,69 +756,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" pageOrder="overThenDown" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -809,25 +831,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -835,40 +857,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -877,66 +899,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -945,66 +967,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1013,66 +1035,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1081,25 +1103,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1107,40 +1129,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1149,25 +1171,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1175,40 +1197,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1217,25 +1239,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1243,40 +1265,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1285,25 +1307,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1311,40 +1333,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1353,25 +1375,25 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1379,40 +1401,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1421,66 +1443,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1488,67 +1510,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1556,26 +1578,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1583,40 +1605,40 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1625,66 +1647,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" scale="105" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1693,66 +1715,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1761,66 +1783,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1829,57 +1851,57 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1887,8 +1909,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1897,66 +1919,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1965,66 +1987,66 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2033,65 +2055,65 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:2" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="279" orientation="landscape" horizontalDpi="1200" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>